--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -660,26 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.43580781847444</v>
+        <v>-15.17316427280407</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.08057913837759</v>
+        <v>12.1679123706812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.377656694308321</v>
+        <v>-7.972428934699261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2807241599049479</v>
-      </c>
-      <c r="G5" s="6" t="inlineStr"/>
+        <v>-0.2565563113412531</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>0.3651048279148941</v>
+        <v>0.4394218315170661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3007500811830854</v>
+        <v>-0.2526571551640841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1334318644570633</v>
+        <v>-0.1215647459598414</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.432502290210303</v>
+        <v>9.738887297822227</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.95470384789201</v>
+        <v>47.17866585629998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.95981870729462</v>
+        <v>31.35067529885237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.5489155395215</v>
+        <v>15.03022487097857</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>6.738031713774498</v>
+        <v>6.377257299939973</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.020035790723997</v>
+        <v>1.896079190534429</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9.852032660144772</v>
+        <v>9.687549238608215</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +747,7 @@
         <v>2.520562479419263</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.411662620301964</v>
+        <v>1.411662620301963</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8593564084964003</v>
+        <v>0.7760069902186036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.856020234349025</v>
+        <v>4.48416612365777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.072574208492513</v>
+        <v>6.594190467752167</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.912605430146565</v>
+        <v>6.773183133398867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1043840930562199</v>
+        <v>-0.1255936799610598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06458299888956347</v>
+        <v>0.1403161864509998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4550885942161534</v>
+        <v>0.4315421126091139</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3309503224898756</v>
+        <v>0.3754628326906347</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.70968501099598</v>
+        <v>18.28659625653231</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>32.02630105603468</v>
+        <v>32.28530494320777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.37371077419786</v>
+        <v>26.6587322396357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24.55876915971125</v>
+        <v>24.46045024934245</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>11.07810509801759</v>
+        <v>12.29685679071722</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.90595266252584</v>
+        <v>3.701908424468059</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>8.239039622011273</v>
+        <v>9.720047027426224</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.365876889993576</v>
+        <v>3.826586454301928</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +835,7 @@
         <v>2.118907448514793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.283858344417106</v>
+        <v>2.283858344417109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.306242844502354</v>
@@ -845,7 +847,7 @@
         <v>0.2610876794874742</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09233474503276932</v>
+        <v>0.09233474503276944</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.784715599785945</v>
+        <v>-3.261464876109236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.17222382632196</v>
+        <v>-8.790300990657309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.185286703045806</v>
+        <v>-7.561619083898854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.53661171930354</v>
+        <v>-7.825731505267908</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3778831690720912</v>
+        <v>-0.4077454736484244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4591996803487837</v>
+        <v>-0.3993541552233766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6533864050670206</v>
+        <v>-0.6991049020199972</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2799147558981057</v>
+        <v>-0.2646249634681057</v>
       </c>
     </row>
     <row r="12">
@@ -888,26 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.570075218606</v>
+        <v>17.15321811291977</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.73047314757677</v>
+        <v>19.50399696959523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.9205104661935</v>
+        <v>12.91596911777006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.19192848567323</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>12.30787872724437</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>9.359878524108199</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>2.165245647778457</v>
+        <v>2.353867636208778</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.184480944563654</v>
+        <v>3.365275615542312</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6308745852235036</v>
+        <v>0.6526503678880757</v>
       </c>
     </row>
     <row r="13">
@@ -954,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2908922625401821</v>
+        <v>0.9430516708309685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.288699715762733</v>
+        <v>-2.197426296220011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.050341575982253</v>
+        <v>-7.204338715654828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.579055172213076</v>
+        <v>4.023741405139396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2172078867924607</v>
+        <v>-0.170138277509851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1582866127692421</v>
+        <v>-0.1344858056676145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3263760980439775</v>
+        <v>-0.3531879287708319</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.254450951629515</v>
+        <v>0.2870098222266592</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.41258258070591</v>
+        <v>21.81105323631355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.56515493090437</v>
+        <v>23.00289446402909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.29399109180391</v>
+        <v>19.21332090215402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.88104544814792</v>
+        <v>17.94145627145453</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12.30287078252228</v>
+        <v>12.73263937437787</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.980333257677771</v>
+        <v>3.411422455496572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.932854870636618</v>
+        <v>1.723994480468561</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.52287764822835</v>
+        <v>3.59633894687562</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1035,7 @@
         <v>18.33982535989689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.06958190150482</v>
+        <v>6.069581901504834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1989002327750888</v>
@@ -1043,7 +1047,7 @@
         <v>4.784151531229761</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3547657927102815</v>
+        <v>0.3547657927102825</v>
       </c>
     </row>
     <row r="17">
@@ -1054,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.88429513098774</v>
+        <v>-13.98021749756571</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.84882979250286</v>
+        <v>-13.47777471715174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.433018762219674</v>
+        <v>5.073063509917979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.517007260985417</v>
+        <v>-6.48181030976194</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5927649426973672</v>
+        <v>-0.5680703218364193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3886831172662642</v>
+        <v>-0.4362804771272671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3000789694912023</v>
+        <v>0.1338672876321493</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2334351948407336</v>
+        <v>-0.2629434572881634</v>
       </c>
     </row>
     <row r="18">
@@ -1086,26 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.80129899852374</v>
+        <v>22.28004774154625</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.50540189544995</v>
+        <v>27.33562228601788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32.65163167419484</v>
+        <v>31.27944048898633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.37841596515699</v>
+        <v>15.95002511609569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.878945148447651</v>
+        <v>3.021839767037928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.761498099419519</v>
+        <v>2.861795194171156</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.713810457609095</v>
+        <v>1.456180197869822</v>
       </c>
     </row>
     <row r="19">
@@ -1152,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.339693086091459</v>
+        <v>-5.292683485587919</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.14397285162705</v>
+        <v>-12.63333374853325</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.34644803597235</v>
+        <v>-3.569287765415835</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.239445834695503</v>
+        <v>0.5252147598400867</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5074120892988864</v>
+        <v>-0.552808050493656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.41059486627723</v>
+        <v>-0.4126352948203086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2105229840017554</v>
+        <v>-0.1760196335816834</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04517353537581327</v>
+        <v>0.01273536336177157</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.51260514525696</v>
+        <v>17.5149626107789</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.70285028174138</v>
+        <v>18.65909542703167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.0707757835209</v>
+        <v>28.96417126360749</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.02743104004926</v>
+        <v>20.10895930438313</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.781085925163263</v>
+        <v>7.536726305929848</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.418771074924962</v>
+        <v>1.291366575938396</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.181573703615086</v>
+        <v>2.386328190039507</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.236885765445611</v>
+        <v>1.164060344449097</v>
       </c>
     </row>
     <row r="22">
@@ -1252,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.720012610856887</v>
+        <v>-5.033449137421515</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.317933257640153</v>
+        <v>-3.564560929404596</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.43208908801674</v>
+        <v>5.211325156951463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.958471152603325</v>
+        <v>5.275094854567631</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7818152653012267</v>
+        <v>-0.804639200207798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2126522214350266</v>
+        <v>-0.196639522133578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2087269952205199</v>
+        <v>0.2591224991351015</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3050606320011398</v>
+        <v>0.3264461348252767</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.835880888745609</v>
+        <v>4.515211754681604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.44102484808961</v>
+        <v>17.49477402729688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.94413483431745</v>
+        <v>25.10552378138971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.74237487873464</v>
+        <v>19.9853427145053</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.523679190936517</v>
+        <v>2.799863992550788</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.854321426055069</v>
+        <v>1.939384869350945</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.851870625577675</v>
+        <v>3.044830974623564</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.52889608288217</v>
+        <v>2.723148026154146</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1333,7 @@
         <v>4.287443999626195</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.717083700728022</v>
+        <v>9.717083700728024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4573401000062455</v>
@@ -1352,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.112646137392312</v>
+        <v>-4.134234870524315</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6548843080881135</v>
+        <v>1.969261471251328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.904855340928576</v>
+        <v>-3.169881581288749</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.754943458964155</v>
+        <v>3.731179540307417</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1983161944375174</v>
+        <v>-0.2315929706132255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03787419090519659</v>
+        <v>0.08360501738120885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2675349513244968</v>
+        <v>-0.3077076119325461</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.27418592685697</v>
+        <v>0.33169541544036</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.88431720652267</v>
+        <v>14.51462219007966</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>18.16022038332737</v>
+        <v>19.11747411754215</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.16150128636511</v>
+        <v>13.06148869154244</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15.54476388866828</v>
+        <v>14.84511920309197</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.802104176149107</v>
+        <v>1.569745880172093</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.537703138078537</v>
+        <v>4.297340083599356</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.35077307586189</v>
+        <v>2.471398554869331</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.422817045061379</v>
+        <v>2.413627732300974</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1445,7 @@
         <v>0.8298796500782175</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.8200346214751915</v>
+        <v>0.8200346214751912</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.080230830872186</v>
+        <v>2.405450944953989</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.954187968634899</v>
+        <v>6.344564509170134</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.525383723767781</v>
+        <v>5.364272651490042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.406327905298013</v>
+        <v>7.316515275150897</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2100832835441862</v>
+        <v>0.2342647159190188</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3425977606057591</v>
+        <v>0.3576711453825235</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.409366970432433</v>
+        <v>0.3808277632172115</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.508820946020217</v>
+        <v>0.5055791330562723</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.245602558854916</v>
+        <v>9.31431996039338</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.49122306510231</v>
+        <v>15.80987948282639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.10308705858781</v>
+        <v>13.80864907359301</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.10859190553509</v>
+        <v>13.41031368129005</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.503216588305722</v>
+        <v>1.431404834682538</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.246927626988994</v>
+        <v>1.314015663879516</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.412109966089</v>
+        <v>1.313169817896635</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.213923436664464</v>
+        <v>1.199940188956802</v>
       </c>
     </row>
     <row r="31">
